--- a/Sales Analysis Automated Reporting for a Supermarket Chain.xlsx
+++ b/Sales Analysis Automated Reporting for a Supermarket Chain.xlsx
@@ -9,16 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sales Dataset" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">Sheet2!$A$1:$P$1001</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Sales Dataset'!$A$1:$P$1001</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -3523,12 +3522,12 @@
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="[$-14009]yyyy/mm/dd;@"/>
-    <numFmt numFmtId="172" formatCode="yyyy\/m\/d"/>
-    <numFmt numFmtId="175" formatCode="yyyy"/>
-    <numFmt numFmtId="176" formatCode="m"/>
-    <numFmt numFmtId="177" formatCode="d"/>
-    <numFmt numFmtId="178" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\/m\/d"/>
+    <numFmt numFmtId="167" formatCode="yyyy"/>
+    <numFmt numFmtId="168" formatCode="m"/>
+    <numFmt numFmtId="169" formatCode="d"/>
+    <numFmt numFmtId="170" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -4013,14 +4012,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -4072,7 +4071,28 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-14009]yyyy/mm/dd;@"/>
+      <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="m"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -4082,27 +4102,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="m"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode="yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -4169,21 +4168,21 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="supermarket_sales___Sheet1" displayName="supermarket_sales___Sheet1" ref="A1:P1001" tableType="queryTable" totalsRowShown="0" headerRowDxfId="17" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="16">
-    <tableColumn id="35" uniqueName="35" name="Invoice ID" queryTableFieldId="1" dataDxfId="15" dataCellStyle="Normal"/>
-    <tableColumn id="36" uniqueName="36" name="Branch" queryTableFieldId="2" dataDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="37" uniqueName="37" name="City" queryTableFieldId="3" dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="38" uniqueName="38" name="Customer type" queryTableFieldId="4" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="39" uniqueName="39" name="Gender" queryTableFieldId="5" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="40" uniqueName="40" name="Product line" queryTableFieldId="6" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="35" uniqueName="35" name="Invoice ID" queryTableFieldId="1" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="36" uniqueName="36" name="Branch" queryTableFieldId="2" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="37" uniqueName="37" name="City" queryTableFieldId="3" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="38" uniqueName="38" name="Customer type" queryTableFieldId="4" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="39" uniqueName="39" name="Gender" queryTableFieldId="5" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="40" uniqueName="40" name="Product line" queryTableFieldId="6" dataDxfId="11" dataCellStyle="Normal"/>
     <tableColumn id="41" uniqueName="41" name="Unit price" queryTableFieldId="7" dataCellStyle="Currency"/>
-    <tableColumn id="42" uniqueName="42" name="Quantity" queryTableFieldId="8" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="43" uniqueName="43" name="Tax 5%" queryTableFieldId="9" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="42" uniqueName="42" name="Quantity" queryTableFieldId="8" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="43" uniqueName="43" name="Tax 5%" queryTableFieldId="9" dataDxfId="9" dataCellStyle="Percent"/>
     <tableColumn id="44" uniqueName="44" name="Total" queryTableFieldId="10" dataCellStyle="Currency"/>
-    <tableColumn id="46" uniqueName="46" name="Time" queryTableFieldId="12" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="46" uniqueName="46" name="Time" queryTableFieldId="12" dataDxfId="8" dataCellStyle="Normal"/>
     <tableColumn id="47" uniqueName="47" name="Payment" queryTableFieldId="13" dataCellStyle="Normal"/>
     <tableColumn id="48" uniqueName="48" name="cogs" queryTableFieldId="14" dataCellStyle="Currency"/>
-    <tableColumn id="49" uniqueName="49" name="gross margin percentage" queryTableFieldId="15" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="50" uniqueName="50" name="gross income" queryTableFieldId="16" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="49" uniqueName="49" name="gross margin percentage" queryTableFieldId="15" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="50" uniqueName="50" name="gross income" queryTableFieldId="16" dataDxfId="6" dataCellStyle="Normal"/>
     <tableColumn id="51" uniqueName="51" name="Rating" queryTableFieldId="17" dataDxfId="5" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4191,11 +4190,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="Q1:T1001" totalsRowShown="0" headerRowDxfId="16" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="Q1:T1001" totalsRowShown="0" headerRowDxfId="4" dataCellStyle="Normal">
   <tableColumns count="4">
-    <tableColumn id="1" name="Year" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Month" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Day" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Year" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Month" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Day" dataDxfId="1" dataCellStyle="Normal"/>
     <tableColumn id="4" name="Date" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4476,18 +4475,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
